--- a/experimental_data/liver_bloodflow/IRCP2001.xlsx
+++ b/experimental_data/liver_bloodflow/IRCP2001.xlsx
@@ -71,7 +71,7 @@
     <t>liverBloodflowEst</t>
   </si>
   <si>
-    <t>she1977</t>
+    <t>ircp2001</t>
   </si>
   <si>
     <t>healthy</t>
@@ -323,15 +323,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>429840</xdr:colOff>
+      <xdr:colOff>456840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>702000</xdr:colOff>
+      <xdr:colOff>728640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -346,8 +346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7083360" y="319680"/>
-          <a:ext cx="8162640" cy="2163240"/>
+          <a:off x="7110360" y="310680"/>
+          <a:ext cx="8162280" cy="2162880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -362,15 +362,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>502200</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>774360</xdr:colOff>
+      <xdr:colOff>801000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -385,8 +385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7155720" y="2638440"/>
-          <a:ext cx="8162640" cy="5505480"/>
+          <a:off x="7182720" y="2629440"/>
+          <a:ext cx="8162280" cy="5505120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F11" activeCellId="0" pane="topLeft" sqref="F11"/>
+      <selection activeCell="F23" activeCellId="0" pane="topLeft" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
